--- a/nuno-dataset/test-solidos-03/content/results/metrics_5_5.xlsx
+++ b/nuno-dataset/test-solidos-03/content/results/metrics_5_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,776 +478,342 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_0</t>
+          <t>model_5_5_10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8487082205008645</v>
+        <v>0.804454692341288</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8399115379069472</v>
+        <v>-0.3964997734652844</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7712395585067179</v>
+        <v>0.9457477069188748</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8147301259589963</v>
+        <v>0.6409127154042931</v>
       </c>
       <c r="F2" t="n">
-        <v>18.2458324432373</v>
+        <v>23.58282279968262</v>
       </c>
       <c r="G2" t="n">
-        <v>14.5552282333374</v>
+        <v>96.38071441650391</v>
       </c>
       <c r="H2" t="n">
-        <v>18.49990272521973</v>
+        <v>8.188017845153809</v>
       </c>
       <c r="I2" t="n">
-        <v>16.41153907775879</v>
+        <v>54.87842559814453</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_13</t>
+          <t>model_5_5_9</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8519983805884428</v>
+        <v>0.8110728165129265</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6848007365559159</v>
+        <v>-0.3146340440137489</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1867385507236333</v>
+        <v>0.9532625587320906</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4793325208959991</v>
+        <v>0.6639777681281096</v>
       </c>
       <c r="F3" t="n">
-        <v>17.84903907775879</v>
+        <v>22.78467178344727</v>
       </c>
       <c r="G3" t="n">
-        <v>28.65788841247559</v>
+        <v>90.73068237304688</v>
       </c>
       <c r="H3" t="n">
-        <v>65.76862335205078</v>
+        <v>7.053840637207031</v>
       </c>
       <c r="I3" t="n">
-        <v>46.12166595458984</v>
+        <v>51.35344696044922</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_10</t>
+          <t>model_5_5_8</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8525875649906361</v>
+        <v>0.8172024119062808</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7865079418742129</v>
+        <v>-0.2328486559325604</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2158670259796276</v>
+        <v>0.958808925354832</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5471126441755352</v>
+        <v>0.6861109853591615</v>
       </c>
       <c r="F4" t="n">
-        <v>17.77798271179199</v>
+        <v>22.04544258117676</v>
       </c>
       <c r="G4" t="n">
-        <v>19.41067886352539</v>
+        <v>85.08618927001953</v>
       </c>
       <c r="H4" t="n">
-        <v>63.41299438476562</v>
+        <v>6.216755867004395</v>
       </c>
       <c r="I4" t="n">
-        <v>40.11757659912109</v>
+        <v>47.97088241577148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_11</t>
+          <t>model_5_5_7</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8635790176926222</v>
+        <v>0.8227081297570551</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7807154897877355</v>
+        <v>-0.1532081307556721</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2687779656139325</v>
+        <v>0.9626126784839145</v>
       </c>
       <c r="E5" t="n">
-        <v>0.566695697183748</v>
+        <v>0.7069172994813475</v>
       </c>
       <c r="F5" t="n">
-        <v>16.4524097442627</v>
+        <v>21.3814525604248</v>
       </c>
       <c r="G5" t="n">
-        <v>19.93732452392578</v>
+        <v>79.5897216796875</v>
       </c>
       <c r="H5" t="n">
-        <v>59.13407516479492</v>
+        <v>5.642675399780273</v>
       </c>
       <c r="I5" t="n">
-        <v>38.38287353515625</v>
+        <v>44.79110717773438</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_1</t>
+          <t>model_5_5_0</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.864784206549317</v>
+        <v>0.8243268158810567</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8597636915669253</v>
+        <v>0.9478327207542535</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6985690556636186</v>
+        <v>0.964916947605762</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7942967985676817</v>
+        <v>0.9712237088017436</v>
       </c>
       <c r="F6" t="n">
-        <v>16.30706596374512</v>
+        <v>21.18623924255371</v>
       </c>
       <c r="G6" t="n">
-        <v>12.75027084350586</v>
+        <v>3.600372791290283</v>
       </c>
       <c r="H6" t="n">
-        <v>24.37678146362305</v>
+        <v>5.294903755187988</v>
       </c>
       <c r="I6" t="n">
-        <v>18.22155952453613</v>
+        <v>4.397809505462646</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_2</t>
+          <t>model_5_5_6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8661329407370739</v>
+        <v>0.8280100923961553</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8584623161772486</v>
+        <v>-0.07222763055684656</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6947078198571554</v>
+        <v>0.9655118482413962</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7919309323674868</v>
+        <v>0.7276260875401011</v>
       </c>
       <c r="F7" t="n">
-        <v>16.14440727233887</v>
+        <v>20.74203300476074</v>
       </c>
       <c r="G7" t="n">
-        <v>12.86859321594238</v>
+        <v>74.00077819824219</v>
       </c>
       <c r="H7" t="n">
-        <v>24.68904113769531</v>
+        <v>5.205118656158447</v>
       </c>
       <c r="I7" t="n">
-        <v>18.43113327026367</v>
+        <v>41.62623596191406</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_4</t>
+          <t>model_5_5_5</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8689065330913656</v>
+        <v>0.833420495550861</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9346516937200519</v>
+        <v>0.01241339571678945</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4366407397531857</v>
+        <v>0.9673715846556835</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7224593793814105</v>
+        <v>0.7487261992583372</v>
       </c>
       <c r="F8" t="n">
-        <v>15.80991077423096</v>
+        <v>20.08953857421875</v>
       </c>
       <c r="G8" t="n">
-        <v>5.941461563110352</v>
+        <v>68.15920257568359</v>
       </c>
       <c r="H8" t="n">
-        <v>45.55897903442383</v>
+        <v>4.924437999725342</v>
       </c>
       <c r="I8" t="n">
-        <v>24.58504676818848</v>
+        <v>38.40155410766602</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_7</t>
+          <t>model_5_5_4</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.869845299912014</v>
+        <v>0.8381194659584027</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8515166199898578</v>
+        <v>0.09269189797362165</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3618284908318902</v>
+        <v>0.9686627641554834</v>
       </c>
       <c r="E9" t="n">
-        <v>0.645144351949766</v>
+        <v>0.7685180571030024</v>
       </c>
       <c r="F9" t="n">
-        <v>15.69669532775879</v>
+        <v>19.52284049987793</v>
       </c>
       <c r="G9" t="n">
-        <v>13.50009536743164</v>
+        <v>62.61870574951172</v>
       </c>
       <c r="H9" t="n">
-        <v>51.60905838012695</v>
+        <v>4.729567527770996</v>
       </c>
       <c r="I9" t="n">
-        <v>31.43375205993652</v>
+        <v>35.37681198120117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_9</t>
+          <t>model_5_5_3</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.869988224060068</v>
+        <v>0.8422688478746513</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8496104100762532</v>
+        <v>0.1688996178021931</v>
       </c>
       <c r="D10" t="n">
-        <v>0.346587507448306</v>
+        <v>0.9695562750904735</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6375609522371927</v>
+        <v>0.7871524395026972</v>
       </c>
       <c r="F10" t="n">
-        <v>15.67945861816406</v>
+        <v>19.02242469787598</v>
       </c>
       <c r="G10" t="n">
-        <v>13.67340660095215</v>
+        <v>57.35916519165039</v>
       </c>
       <c r="H10" t="n">
-        <v>52.84159851074219</v>
+        <v>4.594714164733887</v>
       </c>
       <c r="I10" t="n">
-        <v>32.10549926757812</v>
+        <v>32.52896499633789</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_8</t>
+          <t>model_5_5_2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8701416367982655</v>
+        <v>0.8464002380455271</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8504405171489035</v>
+        <v>0.2466825183690476</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3543963639348739</v>
+        <v>0.9699064733812203</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6413661969959992</v>
+        <v>0.8059124193239291</v>
       </c>
       <c r="F11" t="n">
-        <v>15.66095733642578</v>
+        <v>18.5241756439209</v>
       </c>
       <c r="G11" t="n">
-        <v>13.59793472290039</v>
+        <v>51.99089813232422</v>
       </c>
       <c r="H11" t="n">
-        <v>52.21009826660156</v>
+        <v>4.541860580444336</v>
       </c>
       <c r="I11" t="n">
-        <v>31.76842498779297</v>
+        <v>29.66192436218262</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_5_5_14</t>
+          <t>model_5_5_1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8704601979340622</v>
+        <v>0.8504723178158506</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6572543537091304</v>
+        <v>0.3268469553269439</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3164010831934313</v>
+        <v>0.9699530597652251</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5200693407685772</v>
+        <v>0.8250997228790754</v>
       </c>
       <c r="F12" t="n">
-        <v>15.62253665924072</v>
+        <v>18.03308296203613</v>
       </c>
       <c r="G12" t="n">
-        <v>31.16240119934082</v>
+        <v>46.45827865600586</v>
       </c>
       <c r="H12" t="n">
-        <v>55.28278732299805</v>
+        <v>4.534829139709473</v>
       </c>
       <c r="I12" t="n">
-        <v>42.51312255859375</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>model_5_5_15</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.8709545373195433</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6592363559195131</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.3152195324428365</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.5206385969727607</v>
-      </c>
-      <c r="F13" t="n">
-        <v>15.56292152404785</v>
-      </c>
-      <c r="G13" t="n">
-        <v>30.98219871520996</v>
-      </c>
-      <c r="H13" t="n">
-        <v>55.37833404541016</v>
-      </c>
-      <c r="I13" t="n">
-        <v>42.46269607543945</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>model_5_5_5</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.8742769537857925</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.896901735746659</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.4356306242452724</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.7015136920242375</v>
-      </c>
-      <c r="F14" t="n">
-        <v>15.1622371673584</v>
-      </c>
-      <c r="G14" t="n">
-        <v>9.373683929443359</v>
-      </c>
-      <c r="H14" t="n">
-        <v>45.64066314697266</v>
-      </c>
-      <c r="I14" t="n">
-        <v>26.44045448303223</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>model_5_5_6</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.8748278787825713</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.8790727495278154</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.4040404503080973</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.6782525526168752</v>
-      </c>
-      <c r="F15" t="n">
-        <v>15.09579467773438</v>
-      </c>
-      <c r="G15" t="n">
-        <v>10.99469375610352</v>
-      </c>
-      <c r="H15" t="n">
-        <v>48.19537353515625</v>
-      </c>
-      <c r="I15" t="n">
-        <v>28.50096702575684</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>model_5_5_3</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.8769648688345044</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.9175978270458035</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.6188064528476585</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.7914541096727064</v>
-      </c>
-      <c r="F16" t="n">
-        <v>14.83807373046875</v>
-      </c>
-      <c r="G16" t="n">
-        <v>7.491997718811035</v>
-      </c>
-      <c r="H16" t="n">
-        <v>30.82719993591309</v>
-      </c>
-      <c r="I16" t="n">
-        <v>18.4733715057373</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>model_5_5_16</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.8776556296574695</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.6912970016131119</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.3006811918509104</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.5318137512550549</v>
-      </c>
-      <c r="F17" t="n">
-        <v>14.75476741790771</v>
-      </c>
-      <c r="G17" t="n">
-        <v>28.06724739074707</v>
-      </c>
-      <c r="H17" t="n">
-        <v>56.55405426025391</v>
-      </c>
-      <c r="I17" t="n">
-        <v>41.4727783203125</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>model_5_5_17</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.8849230478519997</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.7389059568887077</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.3011468704792452</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.5578829198035689</v>
-      </c>
-      <c r="F18" t="n">
-        <v>13.87831592559814</v>
-      </c>
-      <c r="G18" t="n">
-        <v>23.73864555358887</v>
-      </c>
-      <c r="H18" t="n">
-        <v>56.51639556884766</v>
-      </c>
-      <c r="I18" t="n">
-        <v>39.16352844238281</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>model_5_5_12</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.8885810432634639</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.7905165631261288</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.4537982443965711</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.6515094856334571</v>
-      </c>
-      <c r="F19" t="n">
-        <v>13.43715953826904</v>
-      </c>
-      <c r="G19" t="n">
-        <v>19.04621315002441</v>
-      </c>
-      <c r="H19" t="n">
-        <v>44.17144775390625</v>
-      </c>
-      <c r="I19" t="n">
-        <v>30.86991882324219</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>model_5_5_24</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.8913071661744996</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.6846848173165099</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.369731442745025</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.5578860736961866</v>
-      </c>
-      <c r="F20" t="n">
-        <v>13.10838794708252</v>
-      </c>
-      <c r="G20" t="n">
-        <v>28.66842651367188</v>
-      </c>
-      <c r="H20" t="n">
-        <v>50.96994781494141</v>
-      </c>
-      <c r="I20" t="n">
-        <v>39.16324615478516</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>model_5_5_19</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.8913434566056186</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.7484772393580714</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.3261707335099971</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.5738333434282015</v>
-      </c>
-      <c r="F21" t="n">
-        <v>13.10401058197021</v>
-      </c>
-      <c r="G21" t="n">
-        <v>22.86842727661133</v>
-      </c>
-      <c r="H21" t="n">
-        <v>54.49271011352539</v>
-      </c>
-      <c r="I21" t="n">
-        <v>37.7506103515625</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>model_5_5_18</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.8916366144030832</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.7505408615867039</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.3273640689911144</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.5754700341574226</v>
-      </c>
-      <c r="F22" t="n">
-        <v>13.06865692138672</v>
-      </c>
-      <c r="G22" t="n">
-        <v>22.68080139160156</v>
-      </c>
-      <c r="H22" t="n">
-        <v>54.39620208740234</v>
-      </c>
-      <c r="I22" t="n">
-        <v>37.60562515258789</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>model_5_5_21</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.8939717524908453</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.7321350136892115</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.3528915889836093</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.5764349454028384</v>
-      </c>
-      <c r="F23" t="n">
-        <v>12.78703880310059</v>
-      </c>
-      <c r="G23" t="n">
-        <v>24.35425758361816</v>
-      </c>
-      <c r="H23" t="n">
-        <v>52.33179092407227</v>
-      </c>
-      <c r="I23" t="n">
-        <v>37.52015686035156</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>model_5_5_23</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.8944540513878623</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.715954166520571</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.3678750113207316</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.574079444975759</v>
-      </c>
-      <c r="F24" t="n">
-        <v>12.72887229919434</v>
-      </c>
-      <c r="G24" t="n">
-        <v>25.82541847229004</v>
-      </c>
-      <c r="H24" t="n">
-        <v>51.12007904052734</v>
-      </c>
-      <c r="I24" t="n">
-        <v>37.72880554199219</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>model_5_5_22</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.894529836225495</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.7388644430125821</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.3493976142791986</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.578591238258638</v>
-      </c>
-      <c r="F25" t="n">
-        <v>12.71973323822021</v>
-      </c>
-      <c r="G25" t="n">
-        <v>23.7424201965332</v>
-      </c>
-      <c r="H25" t="n">
-        <v>52.61434555053711</v>
-      </c>
-      <c r="I25" t="n">
-        <v>37.32914733886719</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_5_5_20</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.8947356459873843</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.7483698935581772</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.3473894520382121</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.582893562521949</v>
-      </c>
-      <c r="F26" t="n">
-        <v>12.69491100311279</v>
-      </c>
-      <c r="G26" t="n">
-        <v>22.87818336486816</v>
-      </c>
-      <c r="H26" t="n">
-        <v>52.77674865722656</v>
-      </c>
-      <c r="I26" t="n">
-        <v>36.94803619384766</v>
+        <v>26.72957611083984</v>
       </c>
     </row>
   </sheetData>
